--- a/Справка_по_рекламациям/Справка по рекламациям за период.xlsx
+++ b/Справка_по_рекламациям/Справка по рекламациям за период.xlsx
@@ -45,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -58,27 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -103,13 +82,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -480,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +504,7 @@
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ММЗ - АСП</t>
+          <t>ММЗ - эксплуатация</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -544,397 +523,20 @@
         </is>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>260-1307116-15</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>течь ОЖ, раковина корпуса насоса</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>компрессор</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>А29.05.000-БЗА</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>прослаблена резьба под шпильку</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>масляный насос</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>245-1403010</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>отсутствует резьба</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>3LD-1403010</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>отслоение грунтовки</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>турбокомпрессор</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>ТКР 6-03.10</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>низкое давление наддува</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>ММЗ - эксплуатация</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>водяной насос</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>240-1307010-А1</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>течь</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>корпус фильтра</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>245-1017015-В</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>масляный насос</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>260-1011020</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>турбокомпрессор</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>ТКР 6-00.01</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>ТКР 6-01.01</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>ТКР 7-00.01</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>неизвестно</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Ростсельмаш - АСП</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>компрессор</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>5336-3509012</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>течь</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>ЯМЗ - эксплуатация</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>водяной насос</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">КБПА 451363.21 </t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>течь</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>компрессор</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПК 225 </t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>недостаточно производительности</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>запчасть</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>компрессор</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>5336-3509012</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>низкая производительность
-(около 7 атм.)</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>ПК 310</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>перепускает в систему охлаждения</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>масляный насос</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>245-1403010</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>не качает</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Справка по количеству рекламаций за период с 22-01-2025 по 28-01-2025
-Строки базы рекламаций ОТК: 172 - 218</t>
+    <row r="4" ht="30" customHeight="1">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Справка по количеству рекламаций за период с 25-01-2025 по 28-01-2025
+Строки базы рекламаций ОТК: 211 - 218</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A18:A20"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
